--- a/Assets/LWJ/Data/TableData.xlsx
+++ b/Assets/LWJ/Data/TableData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -84,7 +84,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>monster01</t>
+    <t>MeleeRobot</t>
+  </si>
+  <si>
+    <t>가장 기본적인 로봇이다.</t>
   </si>
   <si>
     <t>rilfer</t>
@@ -97,6 +100,18 @@
   </si>
   <si>
     <t>survivor</t>
+  </si>
+  <si>
+    <t>RangeRobot</t>
+  </si>
+  <si>
+    <t>기본적인 로봇에 권총만 들려준 상태이다</t>
+  </si>
+  <si>
+    <t>SuicideWeapon</t>
+  </si>
+  <si>
+    <t>자폭형 전쟁로봇이다.</t>
   </si>
   <si>
     <t>attackSpeed</t>
@@ -692,13 +707,16 @@
       <c r="E2" s="2">
         <v>5.0</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>5001.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -706,7 +724,7 @@
         <v>5002.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +732,7 @@
         <v>5003.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +740,47 @@
         <v>5004.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>4002.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>4003.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -760,6 +818,28 @@
       </c>
       <c r="C2" s="2">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>4002.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>4003.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +891,10 @@
         <v>50011.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +902,10 @@
         <v>50012.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -833,10 +913,10 @@
         <v>50013.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -844,10 +924,10 @@
         <v>50014.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -855,10 +935,10 @@
         <v>50015.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -866,10 +946,10 @@
         <v>50016.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -877,10 +957,10 @@
         <v>50017.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -888,10 +968,10 @@
         <v>50018.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +979,7 @@
         <v>50021.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -907,7 +987,7 @@
         <v>50022.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -915,7 +995,7 @@
         <v>50023.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -923,7 +1003,7 @@
         <v>50024.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -931,7 +1011,7 @@
         <v>50025.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +1019,7 @@
         <v>50026.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -947,7 +1027,7 @@
         <v>50027.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -955,7 +1035,7 @@
         <v>50028.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1069,10 @@
         <v>6001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1092,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/LWJ/Data/TableData.xlsx
+++ b/Assets/LWJ/Data/TableData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -51,7 +51,61 @@
     <t>weaponLevel</t>
   </si>
   <si>
+    <t>weaponType</t>
+  </si>
+  <si>
     <t>rifle01</t>
+  </si>
+  <si>
+    <t>rifle02</t>
+  </si>
+  <si>
+    <t>rifle03</t>
+  </si>
+  <si>
+    <t>rifle04</t>
+  </si>
+  <si>
+    <t>rifle05</t>
+  </si>
+  <si>
+    <t>shotgun01</t>
+  </si>
+  <si>
+    <t>shotgun02</t>
+  </si>
+  <si>
+    <t>shotgun03</t>
+  </si>
+  <si>
+    <t>shotgun04</t>
+  </si>
+  <si>
+    <t>shotgun05</t>
+  </si>
+  <si>
+    <t>heavygun01</t>
+  </si>
+  <si>
+    <t>heavygun02</t>
+  </si>
+  <si>
+    <t>heavygun03</t>
+  </si>
+  <si>
+    <t>heavygun04</t>
+  </si>
+  <si>
+    <t>heavygun05</t>
+  </si>
+  <si>
+    <t>revolver</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>melee</t>
   </si>
   <si>
     <t>durability</t>
@@ -498,13 +552,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>25.0</v>
@@ -530,30 +587,569 @@
       <c r="J2" s="2">
         <v>1.0</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1002.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1003.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>1004.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>1005.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>1006.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>1007.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>1008.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>1009.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1010.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>1011.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>1012.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>1013.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>1014.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>1015.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1016.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>1017.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -581,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -598,7 +1194,7 @@
         <v>2001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>150.0</v>
@@ -636,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -647,7 +1243,7 @@
         <v>3001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>25.0</v>
@@ -679,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -696,7 +1292,7 @@
         <v>4001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>100.0</v>
@@ -708,7 +1304,7 @@
         <v>5.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +1312,7 @@
         <v>5001.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +1320,7 @@
         <v>5002.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -732,7 +1328,7 @@
         <v>5003.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -740,7 +1336,7 @@
         <v>5004.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -748,7 +1344,7 @@
         <v>4002.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>100.0</v>
@@ -760,7 +1356,7 @@
         <v>5.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +1364,7 @@
         <v>4003.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>60.0</v>
@@ -780,7 +1376,7 @@
         <v>20.0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -883,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -891,10 +1487,10 @@
         <v>50011.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -902,10 +1498,10 @@
         <v>50012.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -913,10 +1509,10 @@
         <v>50013.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -924,10 +1520,10 @@
         <v>50014.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -935,10 +1531,10 @@
         <v>50015.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -946,10 +1542,10 @@
         <v>50016.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -957,10 +1553,10 @@
         <v>50017.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -968,10 +1564,10 @@
         <v>50018.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -979,7 +1575,7 @@
         <v>50021.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -987,7 +1583,7 @@
         <v>50022.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -995,7 +1591,7 @@
         <v>50023.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1003,7 +1599,7 @@
         <v>50024.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1011,7 +1607,7 @@
         <v>50025.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1019,7 +1615,7 @@
         <v>50026.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1623,7 @@
         <v>50027.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -1035,7 +1631,7 @@
         <v>50028.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -1069,10 +1665,10 @@
         <v>6001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1092,10 +1688,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
